--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,43 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jtejeda/Documents/GitHub/ML_FinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56BB413-7979-2E47-A193-67C88AD7C841}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2915EC-E887-3E4B-866E-4908B52BCA4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{0631EF43-09E3-664B-B4B9-689BF0BE58CB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{0631EF43-09E3-664B-B4B9-689BF0BE58CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$H$3:$H$5</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$I$3:$I$5</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$3:$A$5</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$3:$B$5</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$C$3:$C$5</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$D$3:$D$5</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$E$3:$E$5</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$F$3:$F$5</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$H$3:$H$5</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$I$3:$I$5</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$H$3:$H$5</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$I$3:$I$5</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$H$3:$H$5</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$H$3:$H$5</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$I$3:$I$5</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$H$3:$H$5</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$I$3:$I$5</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$H$3:$H$5</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$I$3:$I$5</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$H$3:$H$5</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$I$3:$I$5</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$I$3:$I$5</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$4</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$5</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$3:$F$3</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$4:$F$4</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$5:$F$5</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4906,7 +4876,7 @@
   <dimension ref="A2:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W56" sqref="W56"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
